--- a/premise/data/additional_inventories/lci-heat-pump-high-temp.xlsx
+++ b/premise/data/additional_inventories/lci-heat-pump-high-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78298F67-8D61-B045-BA79-5CABC8B84225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C265B85-A11F-2B48-A78F-3CAA5C091598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -362,36 +362,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -704,19 +696,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3"/>
-    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="3"/>
-    <col min="11" max="12" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -728,136 +717,136 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -875,457 +864,408 @@
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="str">
+      <c r="A12" s="16" t="str">
         <f>B3</f>
         <v>heat pump production, industrial, water-water, 100 kW</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="16" t="str">
         <f>B8</f>
         <v>RER</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="16" t="str">
         <f>B9</f>
         <v>unit</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="16" t="str">
         <f>B7</f>
         <v>heat pump, water-water, 100kW</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="K12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>521</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="M13" s="14"/>
+      <c r="G13" s="6"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="8">
         <v>3315</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15">
         <v>31500</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16">
         <v>40</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17">
         <v>24</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18">
         <v>1776</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19">
         <v>474</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20">
         <v>237</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21">
         <f>-1*B17</f>
         <v>-24</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22">
         <v>2.5063200000000001</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20" t="s">
+      <c r="G22" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23">
         <v>14.202480000000001</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24">
         <v>16.7088</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="K27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="K28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="K29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="K31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="K32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="K33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1343,184 +1283,178 @@
       <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="16" t="str">
         <f>B26</f>
         <v>steam heat production, water-water heat pump, industrial, 100kW</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>1</v>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="16" t="str">
         <f>B31</f>
         <v>RER</v>
       </c>
-      <c r="D35" s="17" t="str">
+      <c r="D35" s="16" t="str">
         <f>B32</f>
         <v>megajoule</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="17" t="str">
+      <c r="F35" s="16" t="str">
         <f>B30</f>
         <v>steam heat, water-water heat pump, industrial, 100kW</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="K35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="str">
+      <c r="A36" s="16" t="str">
         <f>A12</f>
         <v>heat pump production, industrial, water-water, 100 kW</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <f>1/(2880*1000*15)</f>
         <v>2.3148148148148148E-8</v>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="16" t="str">
         <f>C12</f>
         <v>RER</v>
       </c>
-      <c r="D36" s="17" t="str">
+      <c r="D36" s="16" t="str">
         <f>D12</f>
         <v>unit</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="17" t="str">
+      <c r="F36" s="16" t="str">
         <f>F12</f>
         <v>heat pump, water-water, 100kW</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="K36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37">
         <f>1.73/1000000</f>
         <v>1.73E-6</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38">
         <f>0.015/1000000</f>
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
+      <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="s">
+      <c r="G38" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <f>(290/3.6)/1000</f>
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <f>(45/3.6)/1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="18">
         <f>20/(2880*1000)</f>
         <v>6.9444444444444448E-6</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="25"/>
+      <c r="H41" s="17"/>
       <c r="J41"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1531,25 +1465,28 @@
       <c r="Q41" s="1"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="18">
         <f>20/(2880*1000*15)</f>
         <v>4.6296296296296297E-7</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="17"/>
       <c r="J42"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1560,25 +1497,28 @@
       <c r="Q42" s="1"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="18">
         <f>20/(2880*1000*15)</f>
         <v>4.6296296296296297E-7</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="E43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="F43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="25"/>
+      <c r="H43" s="17"/>
       <c r="J43"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1594,136 +1534,136 @@
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="K45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>1</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="K46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="K47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="K48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="K49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="K50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="K51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="K52" s="8"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1741,178 +1681,172 @@
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="str">
+      <c r="A54" s="16" t="str">
         <f>B45</f>
         <v>heat production, water-water heat pump, industrial, 100kW</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>1</v>
       </c>
-      <c r="C54" s="17" t="str">
+      <c r="C54" s="16" t="str">
         <f>B50</f>
         <v>RER</v>
       </c>
-      <c r="D54" s="17" t="str">
+      <c r="D54" s="16" t="str">
         <f>B51</f>
         <v>megajoule</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="17" t="str">
+      <c r="F54" s="16" t="str">
         <f>B49</f>
         <v>heat, water-water heat pump, industrial, 100kW</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="K54" s="8"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>2.3148148148148148E-8</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="K55" s="8"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56">
         <f>1.73/1000000</f>
         <v>1.73E-6</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57">
         <f>0.015/1000000</f>
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
+      <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20" t="s">
+      <c r="G57" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <f>(290/3.6)/1000</f>
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+    <row r="60" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="18">
         <f>20/(2880*1000)</f>
         <v>6.9444444444444448E-6</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="E60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="F60" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H60" s="25"/>
+      <c r="H60" s="17"/>
       <c r="J60"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -1923,25 +1857,28 @@
       <c r="Q60" s="1"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+    <row r="61" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="18">
         <f>20/(2880*1000*15)</f>
         <v>4.6296296296296297E-7</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="E61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="F61" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H61" s="25"/>
+      <c r="H61" s="17"/>
       <c r="J61"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -1952,25 +1889,28 @@
       <c r="Q61" s="1"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:18" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="18">
         <f>20/(2880*1000*15)</f>
         <v>4.6296296296296297E-7</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="E62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="F62" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="25"/>
+      <c r="H62" s="17"/>
       <c r="J62"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
